--- a/revref_activitycompletion.xlsx
+++ b/revref_activitycompletion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863049D4-F1B9-4199-B949-F92C783059E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB52330-C438-4A65-B527-22F2C8A35C7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>header1</t>
   </si>
@@ -107,6 +107,372 @@
   </si>
   <si>
     <t>小テストの合格点に達したことを学生のコースページに提示したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;項目の活動完了状況を学生に提示する方法&lt;/h3&gt;</t>
+    <rPh sb="21" eb="23">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;活動完了の設定方法&lt;/h4&gt;</t>
+    <rPh sb="9" eb="13">
+      <t>セッテイホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースを開き、提示したい活動をクリックします</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各活動（小テストや課題）の設定には「活動完了」という項目があり、この項目を設定することで活動完了状況が学生に表示されます</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>カツドウカンリョウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>活動名の下に表示されている「設定」をクリックします</t>
+    <rPh sb="0" eb="3">
+      <t>カツドウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「活動完了」の「完了トラッキング」で「条件を満たした場合、活動完了を表示する」を選択します</t>
+    <rPh sb="1" eb="5">
+      <t>カツドウカンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>カツドウカンリョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「保存してコースに戻る」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了条件を設定します
+例えば、課題を提出することを完了条件とするなら「学生は提出する必要があります。」にチェックを入れます</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生はコースを開くと、設定した活動の横に完了状況（設定した完了条件を満たしているか）が表示されるようになります</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;活動完了条件を満たした学生の一覧を表示する方法&lt;/h3&gt;</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースを開きます</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に表示されている「レポート」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「活動完了」をクリックします</t>
+    <rPh sb="1" eb="5">
+      <t>カツドウカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「含む」の右横をクリックすると表示する活動を絞ることができます</t>
+    <rPh sb="1" eb="2">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シボ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「活動順」の右横をクリックするとに表示順を変更することができます</t>
+    <rPh sb="1" eb="4">
+      <t>カツドウジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;活動完了状況を修正する方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>活動完了しているものについてはその学生の活動の項目にチェックマークが入っています</t>
+    <rPh sb="0" eb="2">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>活動完了にしたい場合は、チェックマークを入れます&lt;br&gt;
+活動未完了にしたい場合は、チェックマークを外します</t>
+    <rPh sb="0" eb="4">
+      <t>カツドウカンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェックマークを変更すると確認メッセージが表示されますので、「変更を保存する」をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホゾン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -180,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +572,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,9 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -580,9 +947,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -631,14 +998,16 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
@@ -650,24 +1019,45 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
@@ -683,6 +1073,9 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -696,7 +1089,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -746,31 +1139,44 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -811,7 +1217,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -861,34 +1267,50 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -1152,21 +1574,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1419,21 +1832,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1458,9 +1877,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>